--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="140">
   <si>
     <t>Conference name</t>
   </si>
@@ -59,18 +59,36 @@
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
+    <t>Speaker undesired timeslot tag</t>
+  </si>
+  <si>
+    <t>Soft penalty per undesired tag in a talk's timeslot</t>
+  </si>
+  <si>
     <t>Talk preferred timeslot tag</t>
   </si>
   <si>
+    <t>Talk undesired timeslot tag</t>
+  </si>
+  <si>
     <t>Speaker preferred room tag</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
+    <t>Speaker undesired room tag</t>
+  </si>
+  <si>
+    <t>Soft penalty per undesired tag in a talk's room</t>
+  </si>
+  <si>
     <t>Talk preferred room tag</t>
   </si>
   <si>
+    <t>Talk undesired room tag</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -182,10 +200,22 @@
     <t>Preferred timeslot tags</t>
   </si>
   <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
     <t>Required room tags</t>
   </si>
   <si>
     <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
   </si>
   <si>
     <t>Amy Cole</t>
@@ -482,9 +512,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="81.296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,18 +589,18 @@
         <v>10.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>10.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -581,7 +611,51 @@
         <v>10.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -600,130 +674,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -742,196 +816,196 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.3125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -953,512 +1027,684 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1475,972 +1721,1204 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.3515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.1015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.83203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.55078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.76171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="b">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="b">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="b">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="b">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="b">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="b">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="b">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="b">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="b">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="b">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="b">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="b">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="b">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="b">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="b">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="b">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="b">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2459,82 +2937,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2557,59 +3035,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
     <sheet name="Theme view" r:id="rId8" sheetId="6"/>
     <sheet name="Sector view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="165">
   <si>
     <t>Conference name</t>
   </si>
@@ -173,271 +174,346 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
     <t>S05</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Amy Fox, Beth Green</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>Security, Cloud</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Security, Mobile</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Cloud, Modern Web</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
   </si>
   <si>
     <t>Amy Cole, Beth Fox</t>
   </si>
   <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Dan Jones, Elsa King</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Mobile, Big Data</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Jay Watt, Amy Fox</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise JUnit</t>
-  </si>
-  <si>
-    <t>Culture, Security</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>Mobile, Security</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
+    <t>Middleware, Modern Web</t>
+  </si>
+  <si>
+    <t>VertX</t>
   </si>
   <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Speaker</t>
   </si>
 </sst>
 </file>
@@ -459,7 +535,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +555,16 @@
         <fgColor rgb="AD7FA8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EF2929"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCAF3E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -492,11 +578,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -512,9 +600,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.8671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="81.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -674,11 +762,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -816,14 +904,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1027,21 +1115,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1499,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -1721,26 +1809,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.83203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.55078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.76171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.33984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.28515625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1766,72 +1856,78 @@
         <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -1840,122 +1936,134 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="b">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
       <c r="S3" t="s">
         <v>32</v>
       </c>
       <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -1975,49 +2083,55 @@
       <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="b">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
       <c r="S4" t="s">
         <v>32</v>
       </c>
       <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -2037,49 +2151,55 @@
       <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
       <c r="S5" t="s">
         <v>32</v>
       </c>
       <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.0</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -2099,49 +2219,55 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="b">
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
       <c r="S6" t="s">
         <v>32</v>
       </c>
       <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -2161,49 +2287,55 @@
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="3" t="b">
-        <v>1</v>
+      <c r="P7" t="s">
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -2223,49 +2355,55 @@
       <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="b">
-        <v>0</v>
+      <c r="P8" t="s">
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
-      <c r="R8" t="s">
-        <v>32</v>
+      <c r="R8" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -2285,49 +2423,55 @@
       <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="b">
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
       <c r="S9" t="s">
         <v>32</v>
       </c>
       <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -2347,49 +2491,55 @@
       <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" t="b">
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
       <c r="S10" t="s">
         <v>32</v>
       </c>
       <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -2409,49 +2559,55 @@
       <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="b">
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
       <c r="S11" t="s">
         <v>32</v>
       </c>
       <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -2471,49 +2627,55 @@
       <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" t="b">
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
       <c r="S12" t="s">
         <v>32</v>
       </c>
       <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -2533,49 +2695,55 @@
       <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
       <c r="S13" t="s">
         <v>32</v>
       </c>
       <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -2595,49 +2763,55 @@
       <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="b">
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
       <c r="S14" t="s">
         <v>32</v>
       </c>
       <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -2657,49 +2831,55 @@
       <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="b">
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
       <c r="S15" t="s">
         <v>32</v>
       </c>
       <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -2719,49 +2899,55 @@
       <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="P16" t="b">
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>32</v>
-      </c>
       <c r="S16" t="s">
         <v>32</v>
       </c>
       <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -2781,49 +2967,55 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" t="b">
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
       <c r="S17" t="s">
         <v>32</v>
       </c>
       <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -2843,49 +3035,55 @@
       <c r="O18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="b">
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
       <c r="S18" t="s">
         <v>32</v>
       </c>
       <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -2905,19 +3103,25 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" t="b">
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
       <c r="S19" t="s">
         <v>32</v>
       </c>
       <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2937,13 +3141,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2971,7 +3175,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -2994,26 +3198,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
   </sheetData>
   <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
@@ -3035,13 +3229,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3069,7 +3263,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -3088,6 +3282,357 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" r:id="rId3" sheetId="1"/>
@@ -11,15 +11,17 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Theme view" r:id="rId8" sheetId="6"/>
-    <sheet name="Sector view" r:id="rId9" sheetId="7"/>
-    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
+    <sheet name="Room view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
+    <sheet name="Content view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="167">
   <si>
     <t>Conference name</t>
   </si>
@@ -507,13 +509,19 @@
     <t>VertX</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
   </si>
   <si>
-    <t>Speaker</t>
+    <t>Content tag</t>
+  </si>
+  <si>
+    <t>(1) S06</t>
   </si>
 </sst>
 </file>
@@ -751,6 +759,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -3135,7 +3231,548 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -3175,7 +3812,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -3218,12 +3855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -3263,7 +3900,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -3282,357 +3919,6 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -20,8 +20,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>OptaPlanner</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="1">
+      <text>
+        <t>Speaker unavailable timeslots (S06): -1hard</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>OptaPlanner</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="1">
+      <text>
+        <t>Speaker unavailable timeslots (S06): -1hard</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="169">
   <si>
     <t>Conference name</t>
   </si>
@@ -48,6 +80,12 @@
   </si>
   <si>
     <t>Soft penalty per common sector of 2 talks that have an overlapping timeslot</t>
+  </si>
+  <si>
+    <t>Content audience level flow violation</t>
+  </si>
+  <si>
+    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk.</t>
   </si>
   <si>
     <t>Language diversity</t>
@@ -597,8 +635,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
@@ -608,9 +686,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="130.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -696,12 +774,12 @@
         <v>10.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>10.0</v>
@@ -712,13 +790,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -740,12 +818,12 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>10.0</v>
@@ -754,13 +832,25 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -781,57 +871,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -839,16 +929,17 @@
       <c r="G3"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -867,130 +958,131 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1012,184 +1104,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1197,11 +1289,12 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1230,660 +1323,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1891,11 +1984,12 @@
     <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1931,1303 +2025,1304 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
         <v>3.0</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
         <v>3.0</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
         <v>3.0</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
         <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3248,176 +3343,176 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3438,337 +3533,337 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,57 +3884,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -3847,16 +3942,17 @@
       <c r="G3"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,55 +3973,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
   <mergeCells>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Room view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
-    <sheet name="Content view" r:id="rId12" sheetId="10"/>
+    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
+    <sheet name="Contents view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
@@ -70,10 +70,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Theme conflict</t>
-  </si>
-  <si>
-    <t>Soft penalty per common theme of 2 talks that have an overlapping timeslot</t>
+    <t>Theme track conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Sector conflict</t>
@@ -214,207 +214,207 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme track tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
     <t>S06</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Audience level</t>
-  </si>
-  <si>
-    <t>Content tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
     <t>Tuning IOT-driven Camel</t>
   </si>
   <si>
@@ -550,7 +550,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>Theme tag</t>
+    <t>Theme track tag</t>
   </si>
   <si>
     <t>Sector tag</t>
@@ -1164,8 +1164,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1373,28 +1373,28 @@
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>45</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1529,7 +1529,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1717,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -1823,7 +1823,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>34</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1858,7 +1858,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -2025,61 +2025,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -2088,51 +2088,51 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
         <v>95</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
         <v>96</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>97</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2182,25 +2182,25 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>97</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -2229,19 +2229,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -2250,10 +2250,10 @@
         <v>3.0</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -2297,19 +2297,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -2318,10 +2318,10 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -2365,19 +2365,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
         <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2386,10 +2386,10 @@
         <v>3.0</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -2433,19 +2433,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -2454,10 +2454,10 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
@@ -2510,7 +2510,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>121</v>
@@ -2525,7 +2525,7 @@
         <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -2578,10 +2578,10 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -2593,7 +2593,7 @@
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -2661,7 +2661,7 @@
         <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -2714,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>121</v>
@@ -2729,7 +2729,7 @@
         <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -2797,7 +2797,7 @@
         <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -2850,10 +2850,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -2865,7 +2865,7 @@
         <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -2918,10 +2918,10 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -2933,7 +2933,7 @@
         <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -2986,10 +2986,10 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -3001,7 +3001,7 @@
         <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -3054,7 +3054,7 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>150</v>
@@ -3069,7 +3069,7 @@
         <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -3122,10 +3122,10 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -3137,7 +3137,7 @@
         <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
@@ -3205,7 +3205,7 @@
         <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -3264,7 +3264,7 @@
         <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
@@ -3273,7 +3273,7 @@
         <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3395,7 +3395,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="171">
   <si>
     <t>Conference name</t>
   </si>
@@ -85,7 +85,13 @@
     <t>Content audience level flow violation</t>
   </si>
   <si>
-    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk.</t>
+    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
+  </si>
+  <si>
+    <t>Audience level diversity</t>
+  </si>
+  <si>
+    <t>Soft reward per 2 talks that have the same timeslot and a different audience level</t>
   </si>
   <si>
     <t>Language diversity</t>
@@ -688,7 +694,7 @@
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="130.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -785,12 +791,12 @@
         <v>10.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -801,13 +807,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -829,18 +835,29 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -871,57 +888,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -958,121 +975,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1104,184 +1121,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1323,660 +1340,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2025,1294 +2042,1294 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
         <v>3.0</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
         <v>3.0</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
         <v>3.0</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
         <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3343,163 +3360,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3533,324 +3550,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3884,57 +3901,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -3973,48 +3990,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -29,7 +29,42 @@
   <commentList>
     <comment ref="C3" authorId="1">
       <text>
-        <t>Speaker unavailable timeslots (S06): -1hard</t>
+        <t>Constraint matches:
+  Speaker unavailable timeslots (S06): -1hard</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>OptaPlanner</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="1">
+      <text>
+        <t>Constraint matches:
+  Speaker unavailable timeslots (S06): -1hard</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>OptaPlanner</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="1">
+      <text>
+        <t>Constraint matches:
+  Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -45,7 +80,8 @@
   <commentList>
     <comment ref="C3" authorId="1">
       <text>
-        <t>Speaker unavailable timeslots (S06): -1hard</t>
+        <t>Constraint matches:
+  Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -53,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="172">
   <si>
     <t>Conference name</t>
   </si>
@@ -553,6 +589,9 @@
     <t>VertX</t>
   </si>
   <si>
+    <t>S06: Tuning IOT-driven Camel</t>
+  </si>
+  <si>
     <t>Speaker</t>
   </si>
   <si>
@@ -565,7 +604,7 @@
     <t>Content tag</t>
   </si>
   <si>
-    <t>(1) S06</t>
+    <t>S06 (level 1)</t>
   </si>
 </sst>
 </file>
@@ -630,13 +669,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -701,7 +756,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -721,7 +776,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -732,7 +787,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -743,7 +798,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -754,7 +809,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -765,7 +820,7 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -776,7 +831,7 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -787,7 +842,7 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -798,7 +853,7 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -809,7 +864,7 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -820,7 +875,7 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -831,7 +886,7 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -842,7 +897,7 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -853,7 +908,7 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -879,7 +934,7 @@
   <cols>
     <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.9140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -911,7 +966,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -932,18 +987,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+        <v>171</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -991,104 +1046,104 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1172,132 +1227,132 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1433,566 +1488,566 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2109,1226 +2164,1226 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="b">
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="b">
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="b">
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="b">
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" t="b">
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" t="b">
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="3" t="b">
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" t="b">
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" t="b">
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" t="b">
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="b">
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" t="b">
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" t="b">
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" t="b">
+      <c r="J15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" t="b">
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" t="b">
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" t="b">
+      <c r="J18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="S18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" t="b">
+      <c r="J19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3350,12 +3405,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3404,118 +3466,118 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="30.0" customHeight="true">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3525,6 +3587,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3573,7 +3636,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3594,279 +3657,279 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="true">
+      <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3876,6 +3939,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3924,7 +3988,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3945,18 +4009,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4013,7 +4077,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -24,12 +24,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>OptaPlanner</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0">
       <text>
-        <t>Constraint matches:
+        <t>S06: Tuning IOT-driven Camel
+  Ivy Smith
+  PINNED BY USER
+Constraint matches:
   Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
@@ -41,12 +43,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>OptaPlanner</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0">
       <text>
-        <t>Constraint matches:
+        <t>S06: Tuning IOT-driven Camel
+  Ivy Smith
+  PINNED BY USER
+Constraint matches:
   Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
@@ -58,12 +62,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>OptaPlanner</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="1">
+    <comment ref="C11" authorId="0">
       <text>
-        <t>Constraint matches:
+        <t>S06: Tuning IOT-driven Camel
+  Ivy Smith
+  PINNED BY USER
+Constraint matches:
   Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
@@ -75,12 +81,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>OptaPlanner</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0">
       <text>
-        <t>Constraint matches:
+        <t>S06: Tuning IOT-driven Camel
+  Ivy Smith
+  PINNED BY USER
+Constraint matches:
   Speaker unavailable timeslots (S06): -1hard</t>
       </text>
     </comment>
@@ -89,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="172">
   <si>
     <t>Conference name</t>
   </si>
@@ -923,6 +931,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -991,14 +1002,24 @@
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -3395,6 +3416,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,6 +3617,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3945,6 +3972,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,14 +4043,24 @@
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -4034,6 +4074,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -32,7 +32,7 @@
   Ivy Smith
   PINNED BY USER
 Constraint matches:
-  Speaker unavailable timeslots (S06): -1hard</t>
+  Speaker unavailable timeslot (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -51,7 +51,7 @@
   Ivy Smith
   PINNED BY USER
 Constraint matches:
-  Speaker unavailable timeslots (S06): -1hard</t>
+  Speaker unavailable timeslot (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -70,7 +70,7 @@
   Ivy Smith
   PINNED BY USER
 Constraint matches:
-  Speaker unavailable timeslots (S06): -1hard</t>
+  Speaker unavailable timeslot (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -89,7 +89,7 @@
   Ivy Smith
   PINNED BY USER
 Constraint matches:
-  Speaker unavailable timeslots (S06): -1hard</t>
+  Speaker unavailable timeslot (S06): -1hard</t>
       </text>
     </comment>
   </commentList>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="195">
   <si>
     <t>Conference name</t>
   </si>
@@ -178,6 +178,75 @@
   </si>
   <si>
     <t>Talk undesired room tag</t>
+  </si>
+  <si>
+    <t>Talk type of timeslot</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk in a timeslot with an other talk type</t>
+  </si>
+  <si>
+    <t>Room unavailable timeslot</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk with an unavailable room at its timeslot</t>
+  </si>
+  <si>
+    <t>Room conflict</t>
+  </si>
+  <si>
+    <t>Hard penalty per pair of talks in the same room in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk with an unavailable speaker at its timeslot</t>
+  </si>
+  <si>
+    <t>Speaker conflict</t>
+  </si>
+  <si>
+    <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker required timeslot tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per missing required tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Speaker prohibited timeslot tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per prohibited tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Talk required timeslot tag</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tag</t>
+  </si>
+  <si>
+    <t>Speaker required room tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per missing required tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Speaker prohibited room tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per prohibited tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Talk required room tag</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tag</t>
   </si>
   <si>
     <t>Day</t>
@@ -923,6 +992,150 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -954,71 +1167,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1051,121 +1264,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1197,184 +1410,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1416,660 +1629,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2118,1294 +2331,1294 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3446,163 +3659,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3640,324 +3853,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3995,71 +4208,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4097,48 +4310,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -15,7 +15,9 @@
     <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
     <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
     <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
-    <sheet name="Contents view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience type view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience level view" r:id="rId13" sheetId="11"/>
+    <sheet name="Contents view" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
@@ -28,11 +30,43 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S06: Tuning IOT-driven Camel
-  Ivy Smith
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S06): -1hard</t>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
       </text>
     </comment>
   </commentList>
@@ -47,11 +81,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S06: Tuning IOT-driven Camel
-  Ivy Smith
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S06): -1hard</t>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
       </text>
     </comment>
   </commentList>
@@ -64,13 +96,11 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
-        <t>S06: Tuning IOT-driven Camel
-  Ivy Smith
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S06): -1hard</t>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
       </text>
     </comment>
   </commentList>
@@ -85,11 +115,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S06: Tuning IOT-driven Camel
-  Ivy Smith
-  PINNED BY USER
-Constraint matches:
-  Speaker unavailable timeslot (S06): -1hard</t>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
       </text>
     </comment>
   </commentList>
@@ -97,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="209">
   <si>
     <t>Conference name</t>
   </si>
@@ -126,16 +154,34 @@
     <t>Soft penalty per common sector of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
-    <t>Content audience level flow violation</t>
+    <t>Audience type diversity</t>
+  </si>
+  <si>
+    <t>Soft reward per 2 talks that have the same timeslot and a different audience type</t>
+  </si>
+  <si>
+    <t>Audience type theme track conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per 2 talks that have a common audience type, have a common theme track and have an overlapping timeslot</t>
+  </si>
+  <si>
+    <t>Audience level diversity</t>
+  </si>
+  <si>
+    <t>Soft reward per 2 talks that have the same timeslot and a different audience level</t>
+  </si>
+  <si>
+    <t>Audience level flow per content violation</t>
   </si>
   <si>
     <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
   </si>
   <si>
-    <t>Audience level diversity</t>
-  </si>
-  <si>
-    <t>Soft reward per 2 talks that have the same timeslot and a different audience level</t>
+    <t>Content conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per common content of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Language diversity</t>
@@ -426,6 +472,9 @@
     <t>Sector tags</t>
   </si>
   <si>
+    <t>Audience type</t>
+  </si>
+  <si>
     <t>Audience level</t>
   </si>
   <si>
@@ -456,7 +505,10 @@
     <t>Government</t>
   </si>
   <si>
-    <t>OpenShift, Kubernetes</t>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
   </si>
   <si>
     <t>en</t>
@@ -471,73 +523,82 @@
     <t>Advanced containerized WildFly</t>
   </si>
   <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
     <t>Big Data</t>
   </si>
   <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li</t>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
   </si>
   <si>
     <t>IoT</t>
   </si>
   <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>Camel</t>
@@ -549,6 +610,9 @@
     <t>Building deep learning XStream</t>
   </si>
   <si>
+    <t>Jay Watt, Amy Fox, Beth Green, Amy Cole</t>
+  </si>
+  <si>
     <t>XStream</t>
   </si>
   <si>
@@ -558,13 +622,13 @@
     <t>Securing scalable Docker</t>
   </si>
   <si>
-    <t>Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Docker</t>
+    <t>Beth Fox, Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t>IoT, Security</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
   </si>
   <si>
     <t>S09</t>
@@ -582,58 +646,67 @@
     <t>Prepare for streaming GWT</t>
   </si>
   <si>
+    <t>Security, Culture</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Security, Mobile</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Beth Green, Amy Cole</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
     <t>Beth Fox, Chad Green</t>
   </si>
   <si>
-    <t>Security, Cloud</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Security, Mobile</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
+    <t>Modern Web, Big Data</t>
   </si>
   <si>
     <t>Android</t>
@@ -645,9 +718,6 @@
     <t>Deliver stable Tensorflow</t>
   </si>
   <si>
-    <t>Cloud, Modern Web</t>
-  </si>
-  <si>
     <t>Tensorflow</t>
   </si>
   <si>
@@ -657,31 +727,32 @@
     <t>Implement platform-independent VertX</t>
   </si>
   <si>
-    <t>Amy Cole, Beth Fox</t>
-  </si>
-  <si>
-    <t>Middleware, Modern Web</t>
-  </si>
-  <si>
     <t>VertX</t>
   </si>
   <si>
-    <t>S06: Tuning IOT-driven Camel</t>
+    <t>S03: Intro to serverless Drools
+  Dan Jones</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
+    <t>S03 @ R 1</t>
+  </si>
+  <si>
     <t>Theme track tag</t>
   </si>
   <si>
     <t>Sector tag</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Content tag</t>
   </si>
   <si>
-    <t>S06 (level 1)</t>
+    <t>S03 (level 3)</t>
   </si>
 </sst>
 </file>
@@ -781,6 +852,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -824,7 +903,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
   </cols>
@@ -876,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -898,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -934,104 +1013,104 @@
         <v>10.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>35</v>
@@ -1042,7 +1121,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
@@ -1053,7 +1132,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -1064,7 +1143,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
@@ -1075,65 +1154,98 @@
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1255,210 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -1167,71 +1483,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1264,121 +1580,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1410,184 +1726,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1629,660 +1945,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2308,1317 +2624,1375 @@
     <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.78515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.33984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.4375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.28515625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="23.01171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="20.3828125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.1484375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="38.19140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.4453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.64453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>143</v>
+      <c r="H7" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>163</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>172</v>
+        <v>65</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>179</v>
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>188</v>
+        <v>125</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="2" t="b">
+        <v>65</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="T19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3659,163 +4033,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" ht="30.0" customHeight="true">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="60.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" ht="30.0" customHeight="true">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="60.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" ht="30.0" customHeight="true">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="60.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" ht="30.0" customHeight="true">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="60.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" ht="30.0" customHeight="true">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" ht="60.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3853,324 +4227,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>144</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -4208,71 +4582,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4310,48 +4684,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="210">
   <si>
     <t>Conference name</t>
   </si>
@@ -304,163 +304,166 @@
     <t>End</t>
   </si>
   <si>
+    <t>Talk types</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Mon 2018-10-01</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>10:15-12:15</t>
+  </si>
+  <si>
+    <t>10:15-11:00</t>
+  </si>
+  <si>
+    <t>11:30-12:15</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:30-16:15</t>
+  </si>
+  <si>
+    <t>16:30-17:15</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Talk type</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Mon 2018-10-01</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Breakout</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>10:15-12:15</t>
-  </si>
-  <si>
-    <t>10:15-11:00</t>
-  </si>
-  <si>
-    <t>11:30-12:15</t>
-  </si>
-  <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>15:30-16:15</t>
-  </si>
-  <si>
-    <t>16:30-17:15</t>
-  </si>
-  <si>
-    <t>R 1</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Speakers</t>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1325,13 +1328,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1427,13 +1430,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1529,13 +1532,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1574,7 +1577,7 @@
     <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2654,28 +2657,28 @@
         <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>90</v>
@@ -2702,10 +2705,10 @@
         <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -2714,15 +2717,15 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
@@ -2731,22 +2734,22 @@
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -2761,7 +2764,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -2790,10 +2793,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -2802,22 +2805,22 @@
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -2832,7 +2835,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -2861,10 +2864,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
@@ -2873,22 +2876,22 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -2932,10 +2935,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -2944,22 +2947,22 @@
         <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -3003,34 +3006,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -3074,34 +3077,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -3145,10 +3148,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
@@ -3157,22 +3160,22 @@
         <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -3216,34 +3219,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -3287,34 +3290,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
@@ -3370,22 +3373,22 @@
         <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -3429,10 +3432,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
@@ -3441,22 +3444,22 @@
         <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -3500,34 +3503,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
@@ -3583,22 +3586,22 @@
         <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -3642,34 +3645,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -3713,34 +3716,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -3784,34 +3787,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -3855,10 +3858,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
@@ -3867,22 +3870,22 @@
         <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -3926,34 +3929,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -4056,7 +4059,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4085,7 +4088,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4250,7 +4253,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4348,7 +4351,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>65</v>
@@ -4605,7 +4608,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4628,13 +4631,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4707,7 +4710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -11,32 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
-    <sheet name="Audience type view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience level view" r:id="rId13" sheetId="11"/>
-    <sheet name="Contents view" r:id="rId14" sheetId="12"/>
+    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
+    <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
+    <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Contents view" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,7 +57,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -96,6 +80,23 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S03: Intro to serverless Drools
+  Dan Jones
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="C6" authorId="0">
       <text>
         <t>S03: Intro to serverless Drools
@@ -107,7 +108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="214">
   <si>
     <t>Conference name</t>
   </si>
@@ -394,9 +395,6 @@
     <t>R 5</t>
   </si>
   <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
     <t>Required timeslot tags</t>
   </si>
   <si>
@@ -517,9 +515,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
     <t>S01</t>
   </si>
   <si>
@@ -731,6 +726,24 @@
   </si>
   <si>
     <t>VertX</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>-34init</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Usable timeslots</t>
+  </si>
+  <si>
+    <t>Usable rooms</t>
+  </si>
+  <si>
+    <t>Usable sessions</t>
   </si>
   <si>
     <t>S03: Intro to serverless Drools
@@ -863,6 +876,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -1271,6 +1288,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -1305,7 +1400,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1328,13 +1423,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1359,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -1407,7 +1502,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1430,13 +1525,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1461,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -1509,7 +1604,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1532,13 +1627,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1718,13 +1813,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1735,11 +1831,11 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1750,6 +1846,9 @@
         <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1758,24 +1857,27 @@
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1784,24 +1886,27 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1810,24 +1915,27 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1836,24 +1944,27 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1862,24 +1973,27 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1888,30 +2002,33 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -1998,28 +2115,28 @@
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>76</v>
@@ -2042,7 +2159,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -2089,7 +2206,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>65</v>
@@ -2136,7 +2253,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -2183,7 +2300,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
@@ -2230,7 +2347,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -2277,7 +2394,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>65</v>
@@ -2324,7 +2441,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -2371,7 +2488,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -2418,7 +2535,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>65</v>
@@ -2465,7 +2582,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
@@ -2512,7 +2629,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
@@ -2559,7 +2676,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>65</v>
@@ -2651,64 +2768,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -2717,40 +2834,40 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
@@ -2764,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -2793,34 +2910,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -2835,7 +2952,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -2864,34 +2981,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -2935,34 +3052,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -3006,34 +3123,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -3077,34 +3194,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -3148,34 +3265,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -3219,34 +3336,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -3290,34 +3407,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -3361,34 +3478,34 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -3432,34 +3549,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -3503,34 +3620,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -3574,34 +3691,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -3645,34 +3762,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -3716,34 +3833,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -3787,34 +3904,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -3858,34 +3975,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -3929,34 +4046,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -4005,6 +4122,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -4059,7 +4263,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4088,7 +4292,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4205,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -4253,7 +4457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4276,7 +4480,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -4299,7 +4503,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
@@ -4322,7 +4526,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>65</v>
@@ -4345,13 +4549,13 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>65</v>
@@ -4368,7 +4572,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -4391,7 +4595,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>65</v>
@@ -4414,7 +4618,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>65</v>
@@ -4437,7 +4641,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -4460,7 +4664,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -4483,7 +4687,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -4506,7 +4710,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>65</v>
@@ -4529,7 +4733,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
@@ -4560,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -4608,7 +4812,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4631,13 +4835,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4660,82 +4864,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FCE94F"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="216">
   <si>
     <t>Conference name</t>
   </si>
@@ -473,7 +473,7 @@
     <t>Sector tags</t>
   </si>
   <si>
-    <t>Audience type</t>
+    <t>Audience types</t>
   </si>
   <si>
     <t>Audience level</t>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>Usable sessions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>S03: Intro to serverless Drools
@@ -760,6 +763,9 @@
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Audience type</t>
   </si>
   <si>
     <t>3</t>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1429,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1525,13 +1531,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1633,7 +1639,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4202,6 +4208,24 @@
         <v>16.0</v>
       </c>
     </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4292,7 +4316,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -4457,7 +4481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4555,7 +4579,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>65</v>
@@ -4812,7 +4836,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -4841,7 +4865,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -1897,7 +1897,7 @@
       <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1906,7 +1906,7 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1926,7 +1926,7 @@
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1935,7 +1935,7 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1955,7 +1955,7 @@
       <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1964,7 +1964,7 @@
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1984,7 +1984,7 @@
       <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1993,7 +1993,7 @@
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2016,19 +2016,19 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1058,7 +1058,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1069,7 +1069,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1080,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1091,7 +1091,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1102,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1124,7 +1124,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Infeasible view" r:id="rId8" sheetId="6"/>
     <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
     <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
     <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
     <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
-    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Audience types view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience levels view" r:id="rId14" sheetId="12"/>
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
+    <sheet name="Languages view" r:id="rId16" sheetId="14"/>
+    <sheet name="Score view" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
@@ -31,9 +33,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -48,9 +51,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -65,9 +69,28 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -82,9 +105,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -99,9 +123,10 @@
   <commentList>
     <comment ref="C6" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -116,9 +141,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S03: Intro to serverless Drools
-  Dan Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S03: Intro to serverless Drools
+    Dan Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -126,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="219">
   <si>
     <t>Conference name</t>
   </si>
@@ -775,6 +801,15 @@
   </si>
   <si>
     <t>S03 (level 3)</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -886,6 +921,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -1664,6 +1707,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -4223,7 +4411,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" ht="60.0" customHeight="true">
+    <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -4331,7 +4519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -4354,7 +4542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="60.0" customHeight="true">
+    <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -4377,7 +4565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="true">
+    <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
@@ -4400,7 +4588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="60.0" customHeight="true">
+    <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
@@ -4448,12 +4636,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -831,7 +831,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,6 +858,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="A40000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
@@ -874,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -892,6 +897,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -972,9 +980,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="148.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1337,13 +1345,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1415,13 +1423,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1474,22 +1482,22 @@
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1517,13 +1525,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1576,22 +1584,22 @@
       <c r="A3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1619,13 +1627,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.9140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1678,22 +1686,22 @@
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1721,13 +1729,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1780,22 +1788,22 @@
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1829,9 +1837,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1863,11 +1871,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.87890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2006,15 +2014,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.29296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.87890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2240,21 +2248,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.01171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="20.3828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="20.1484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2935,29 +2943,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.19140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.43359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.4453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.4375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.64453125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="21.69921875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="22.09765625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="23.01171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="19.07421875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="19.47265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.3828125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="20.1484375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.3125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.40234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.6953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.55078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="19.1953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.85546875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="25.390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="26.30859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="26.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="21.671875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="23.125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4329,11 +4337,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.27734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.4296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.25" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4434,7 +4442,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.0" customWidth="true"/>
     <col min="3" max="3" width="20.0" customWidth="true"/>
     <col min="4" max="4" width="20.0" customWidth="true"/>
@@ -4506,16 +4514,16 @@
       <c r="C3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4526,19 +4534,19 @@
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4549,19 +4557,19 @@
       <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4572,19 +4580,19 @@
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4592,7 +4600,7 @@
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4601,7 +4609,7 @@
       <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -4635,7 +4643,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.0" customWidth="true"/>
     <col min="3" max="3" width="20.0" customWidth="true"/>
     <col min="4" max="4" width="20.0" customWidth="true"/>
@@ -4701,22 +4709,22 @@
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4724,22 +4732,22 @@
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4747,22 +4755,22 @@
       <c r="A5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4770,22 +4778,22 @@
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4793,22 +4801,22 @@
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4816,22 +4824,22 @@
       <c r="A8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4839,22 +4847,22 @@
       <c r="A9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4862,22 +4870,22 @@
       <c r="A10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4894,13 +4902,13 @@
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4908,22 +4916,22 @@
       <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4931,22 +4939,22 @@
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4954,22 +4962,22 @@
       <c r="A14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4997,13 +5005,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5056,22 +5064,22 @@
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="220">
   <si>
     <t>Conference name</t>
   </si>
@@ -256,10 +256,13 @@
     <t>Talk type of timeslot</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk in a timeslot with an other talk type</t>
+    <t>Hard penalty per talk in a timeslot with another talk type</t>
+  </si>
+  <si>
+    <t>Talk type of room</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk in a room with another talk type</t>
   </si>
   <si>
     <t>Room unavailable timeslot</t>
@@ -1186,143 +1189,154 @@
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="2" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
+      <c r="B29" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+      <c r="B30" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+      <c r="B33" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1356,48 +1370,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1434,71 +1448,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1536,71 +1550,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1638,71 +1652,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1740,77 +1754,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1845,13 +1859,13 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1880,121 +1894,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2027,205 +2041,205 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2267,660 +2281,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2970,1351 +2984,1351 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4346,33 +4360,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -4389,7 +4403,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -4407,7 +4421,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -4460,163 +4474,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4661,324 +4675,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5016,71 +5030,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="228">
   <si>
     <t>Conference name</t>
   </si>
@@ -253,6 +253,12 @@
     <t>Talk undesired room tag</t>
   </si>
   <si>
+    <t>Same day talks</t>
+  </si>
+  <si>
+    <t>Soft penalty per common content/theme of 2 talks that are scheduled on different days</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -325,6 +331,18 @@
     <t>Talk prohibited room tag</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tag</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t>Hard penalty per talk that is scheduled before any of its prerequisite talks</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
@@ -512,6 +530,12 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>Mutually exclusive talks tags</t>
+  </si>
+  <si>
+    <t>Prerequisite talks codes</t>
   </si>
   <si>
     <t>Pinned by user</t>
@@ -1184,18 +1208,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B20" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="1" t="s">
         <v>35</v>
@@ -1223,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
@@ -1234,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -1281,12 +1305,12 @@
         <v>1.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
@@ -1297,13 +1321,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -1325,18 +1349,51 @@
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1370,48 +1427,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1448,71 +1505,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1550,71 +1607,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1652,71 +1709,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1754,77 +1811,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1859,13 +1916,13 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1894,121 +1951,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2041,205 +2098,205 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2281,660 +2338,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2975,1360 +3032,1476 @@
     <col min="16" max="16" width="22.20703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="23.125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="4" t="b">
+        <v>72</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="V19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4360,33 +4533,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -4403,7 +4576,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -4421,7 +4594,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -4474,163 +4647,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4675,324 +4848,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5030,71 +5203,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -72,7 +72,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -97,7 +97,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -122,7 +122,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -147,7 +147,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -172,7 +172,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -197,7 +197,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">S11: Understand mobile Errai
+          <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 </t>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="231">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -457,6 +457,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:15-12:15</t>
   </si>
   <si>
@@ -487,12 +490,12 @@
     <t xml:space="preserve">R 3</t>
   </si>
   <si>
+    <t xml:space="preserve">R 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">R 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">R 5</t>
   </si>
   <si>
@@ -613,231 +616,234 @@
     <t xml:space="preserve">Hands on real-time OpenShift</t>
   </si>
   <si>
+    <t xml:space="preserve">Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business analysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenShift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WildFly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data, Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptaPlanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middleware, Modern Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jBPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building deep learning XStream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Fox, Beth Green, Amy Cole</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cloud</t>
   </si>
   <si>
-    <t xml:space="preserve">Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business analysts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenShift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced containerized WildFly</t>
+    <t xml:space="preserve">XStream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securing scalable Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security, Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecommunications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand mobile Errai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applying modern Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grok distributed Weld</t>
   </si>
   <si>
     <t xml:space="preserve">Middleware, Security</t>
   </si>
   <si>
-    <t xml:space="preserve">Managers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WildFly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad Green, Dan Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OptaPlanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jBPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building deep learning XStream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence, Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XStream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Securing scalable Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Watt, Amy Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beth Green, Amy Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beth Fox, Chad Green</t>
+    <t xml:space="preserve">Weld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile, Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestEasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using secure Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud, Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensorflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement platform-independent VertX</t>
   </si>
   <si>
     <t xml:space="preserve">Middleware</t>
   </si>
   <si>
-    <t xml:space="preserve">GWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand mobile Errai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applying modern Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud, Middleware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grok distributed Weld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flo Li, Gus Poe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RestEasy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using secure Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivy Smith, Jay Watt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tensorflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement platform-independent VertX</t>
-  </si>
-  <si>
     <t xml:space="preserve">VertX</t>
   </si>
   <si>
@@ -862,14 +868,14 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">S11: Understand mobile Errai
+    <t xml:space="preserve">S10: Prepare for streaming GWT
   Dan Jones</t>
   </si>
   <si>
     <t xml:space="preserve">Speaker</t>
   </si>
   <si>
-    <t xml:space="preserve">S11 @ R 1</t>
+    <t xml:space="preserve">S10 @ R 1</t>
   </si>
   <si>
     <t xml:space="preserve">Theme track tag</t>
@@ -887,7 +893,7 @@
     <t xml:space="preserve">Content tag</t>
   </si>
   <si>
-    <t xml:space="preserve">S11 (level 1)</t>
+    <t xml:space="preserve">S10 (level 1)</t>
   </si>
   <si>
     <t xml:space="preserve">Constraint match</t>
@@ -1098,7 +1104,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1515,7 +1521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,25 +1544,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1586,12 +1592,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
@@ -1609,34 +1615,34 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1671,7 +1677,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1694,34 +1700,34 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1756,7 +1762,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1779,34 +1785,34 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1841,7 +1847,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,44 +1870,44 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1938,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1945,13 +1951,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1983,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2113,23 +2119,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2150,13 +2157,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>83</v>
@@ -2173,89 +2180,107 @@
       <c r="I2" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>630</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2283,7 +2308,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2325,51 +2350,51 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2388,7 +2413,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2407,16 +2432,14 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2428,7 +2451,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2447,7 +2470,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2466,7 +2489,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2476,25 +2499,23 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2506,7 +2527,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2525,7 +2546,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2535,25 +2556,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2565,7 +2584,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2584,7 +2603,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2622,12 +2641,12 @@
   </sheetPr>
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U8" activeCellId="1" sqref="V6:V12 U8"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2635,12 +2654,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.4"/>
@@ -2664,76 +2683,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>64</v>
@@ -2742,39 +2761,37 @@
         <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2787,10 +2804,10 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="n">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2803,32 +2820,34 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2841,10 +2860,10 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="n">
-        <v>474</v>
+        <v>291</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2857,32 +2876,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2895,10 +2914,10 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="n">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2911,32 +2930,32 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2949,10 +2968,10 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="n">
-        <v>82</v>
+        <v>761</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2963,36 +2982,34 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3005,7 +3022,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2" t="n">
-        <v>841</v>
+        <v>388</v>
       </c>
       <c r="V6" s="2" t="n">
         <v>2</v>
@@ -3019,36 +3036,36 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3061,10 +3078,10 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="n">
-        <v>957</v>
+        <v>798</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3075,34 +3092,36 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3115,10 +3134,10 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="n">
-        <v>628</v>
+        <v>401</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3129,36 +3148,34 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3171,10 +3188,10 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="n">
-        <v>509</v>
+        <v>720</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3185,34 +3202,34 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3225,10 +3242,10 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="n">
-        <v>349</v>
+        <v>55</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3239,34 +3256,36 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3279,10 +3298,10 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2" t="n">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3293,34 +3312,34 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3333,48 +3352,58 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2" t="n">
-        <v>435</v>
+        <v>546</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3387,58 +3416,48 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2" t="n">
-        <v>429</v>
+        <v>785</v>
       </c>
       <c r="V13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W13" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3451,7 +3470,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2" t="n">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -3467,32 +3486,34 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3505,10 +3526,10 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="V15" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>2</v>
       </c>
       <c r="W15" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3521,32 +3542,32 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3559,10 +3580,10 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2" t="n">
-        <v>957</v>
+        <v>318</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W16" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3575,32 +3596,32 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>203</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3613,10 +3634,10 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2" t="n">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3638,23 +3659,23 @@
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3667,7 +3688,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2" t="n">
-        <v>39</v>
+        <v>596</v>
       </c>
       <c r="V18" s="2" t="n">
         <v>3</v>
@@ -3683,32 +3704,32 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3721,10 +3742,10 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2" t="n">
-        <v>458</v>
+        <v>701</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W19" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -3759,7 +3780,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3774,27 +3795,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,7 +3854,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18</v>
@@ -3872,7 +3893,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3895,34 +3916,34 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -3931,7 +3952,7 @@
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -3942,7 +3963,7 @@
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -3964,7 +3985,7 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -4001,7 +4022,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4024,30 +4045,30 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4058,7 +4079,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4069,7 +4090,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4080,11 +4101,11 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4093,7 +4114,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4104,18 +4125,18 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4126,7 +4147,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4137,18 +4158,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4159,7 +4180,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4170,7 +4191,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4207,12 +4228,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="V6:V12 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="13.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
@@ -4230,34 +4251,34 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -217,40 +217,40 @@
     <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t>Speaker preferred timeslot tag</t>
+    <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker undesired timeslot tag</t>
+    <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker preferred room tag</t>
+    <t>Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker preferred room tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker undesired room tag</t>
+    <t>Speaker undesired room tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk preferred room tag</t>
-  </si>
-  <si>
-    <t>Talk undesired room tag</t>
+    <t>Talk preferred room tags</t>
+  </si>
+  <si>
+    <t>Talk undesired room tags</t>
   </si>
   <si>
     <t>Same day talks</t>
@@ -301,43 +301,43 @@
     <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t>Speaker required timeslot tag</t>
+    <t>Speaker required timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker prohibited timeslot tag</t>
+    <t>Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker required room tag</t>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker prohibited room tag</t>
+    <t>Speaker prohibited room tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk required room tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tag</t>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -36,6 +36,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -54,6 +56,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -72,6 +76,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -90,6 +96,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -108,6 +116,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -126,6 +136,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -144,6 +156,8 @@
         <t xml:space="preserve">S10: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
+-10soft total
+    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -152,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="238">
   <si>
     <t>Conference name</t>
   </si>
@@ -265,6 +279,12 @@
     <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
+    <t>Crowd control</t>
+  </si>
+  <si>
+    <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -802,7 +822,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-34init</t>
+    <t>-34init/-10soft</t>
   </si>
   <si>
     <t>Count</t>
@@ -855,6 +875,12 @@
   </si>
   <si>
     <t>Total score</t>
+  </si>
+  <si>
+    <t>-10soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S10</t>
   </si>
 </sst>
 </file>
@@ -1248,18 +1274,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="22">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B22" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="1" t="s">
         <v>39</v>
@@ -1287,7 +1313,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -1298,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
@@ -1345,12 +1371,12 @@
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
@@ -1361,13 +1387,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -1389,12 +1415,12 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
@@ -1405,13 +1431,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -1423,6 +1449,17 @@
       </c>
       <c r="C38" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1456,48 +1493,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1534,71 +1571,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1636,71 +1673,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1738,71 +1775,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1840,77 +1877,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1945,14 +1982,33 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1980,121 +2036,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2128,226 +2184,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2389,660 +2445,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3096,147 +3152,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3248,78 +3304,78 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3331,78 +3387,78 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3414,78 +3470,78 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3497,78 +3553,78 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -3580,78 +3636,78 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -3663,78 +3719,78 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -3746,78 +3802,78 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -3829,78 +3885,78 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -3912,78 +3968,78 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -3995,78 +4051,78 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4078,78 +4134,78 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4161,78 +4217,78 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4244,78 +4300,78 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4327,78 +4383,78 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4410,78 +4466,78 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -4493,78 +4549,78 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -4576,78 +4632,78 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -4659,16 +4715,16 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4692,7 +4748,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.4296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.25" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="17.625" customWidth="true" bestFit="true"/>
@@ -4700,33 +4756,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -4743,7 +4799,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -4761,7 +4817,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -4814,163 +4870,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5015,324 +5071,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5370,71 +5426,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -276,7 +276,7 @@
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
@@ -567,7 +567,7 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
-    <t>Number of likes</t>
+    <t>Favorite count</t>
   </si>
   <si>
     <t>Crowd control risk</t>
@@ -3141,7 +3141,7 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -285,6 +285,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -355,12 +361,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1042,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1291,109 +1291,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1404,40 +1394,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1448,17 +1438,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1473,7 +1474,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1551,7 +1552,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1653,7 +1654,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1755,7 +1756,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1857,7 +1858,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1943,12 +1944,6 @@
       <c r="G3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>218</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1965,50 +1960,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2018,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2161,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2417,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3112,7 +3115,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4738,7 +4741,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -4843,7 +4846,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5044,7 +5047,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5406,7 +5409,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="242">
   <si>
     <t>Conference name</t>
   </si>
@@ -580,6 +580,18 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>Published Timeslot</t>
+  </si>
+  <si>
+    <t>Published Start</t>
+  </si>
+  <si>
+    <t>Published End</t>
+  </si>
+  <si>
+    <t>Published Room</t>
   </si>
   <si>
     <t>S00</t>
@@ -1042,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1473,7 +1485,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1516,7 +1528,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -1551,7 +1563,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1594,7 +1606,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -1617,13 +1629,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -1653,7 +1665,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1719,13 +1731,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -1755,7 +1767,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1798,7 +1810,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -1821,13 +1833,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -1857,7 +1869,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1923,13 +1935,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -1942,12 +1954,6 @@
       </c>
       <c r="G3" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1965,50 +1971,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2018,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2161,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2417,7 +2431,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3112,7 +3126,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3148,6 +3162,10 @@
     <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3232,37 +3250,49 @@
       <c r="AA1" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>76</v>
@@ -3315,37 +3345,49 @@
       <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>76</v>
@@ -3398,13 +3440,25 @@
       <c r="AA3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>78</v>
@@ -3413,22 +3467,22 @@
         <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>76</v>
@@ -3481,13 +3535,25 @@
       <c r="AA4" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
@@ -3496,22 +3562,22 @@
         <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>76</v>
@@ -3564,37 +3630,49 @@
       <c r="AA5" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>76</v>
@@ -3647,13 +3725,25 @@
       <c r="AA6" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>78</v>
@@ -3662,22 +3752,22 @@
         <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>76</v>
@@ -3730,13 +3820,25 @@
       <c r="AA7" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
@@ -3745,22 +3847,22 @@
         <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>76</v>
@@ -3813,37 +3915,49 @@
       <c r="AA8" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>76</v>
@@ -3896,13 +4010,25 @@
       <c r="AA9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>78</v>
@@ -3911,22 +4037,22 @@
         <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>76</v>
@@ -3979,13 +4105,25 @@
       <c r="AA10" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>78</v>
@@ -3994,22 +4132,22 @@
         <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>76</v>
@@ -4062,13 +4200,25 @@
       <c r="AA11" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>78</v>
@@ -4077,22 +4227,22 @@
         <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>76</v>
@@ -4145,37 +4295,49 @@
       <c r="AA12" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>76</v>
@@ -4228,13 +4390,25 @@
       <c r="AA13" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
@@ -4243,22 +4417,22 @@
         <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>76</v>
@@ -4311,13 +4485,25 @@
       <c r="AA14" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>78</v>
@@ -4326,22 +4512,22 @@
         <v>116</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -4394,13 +4580,25 @@
       <c r="AA15" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>78</v>
@@ -4409,22 +4607,22 @@
         <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>76</v>
@@ -4477,13 +4675,25 @@
       <c r="AA16" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>78</v>
@@ -4492,22 +4702,22 @@
         <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>76</v>
@@ -4560,13 +4770,25 @@
       <c r="AA17" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -4575,22 +4797,22 @@
         <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>76</v>
@@ -4643,13 +4865,25 @@
       <c r="AA18" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
@@ -4658,22 +4892,22 @@
         <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>76</v>
@@ -4724,6 +4958,18 @@
         <v>76</v>
       </c>
       <c r="AA19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4738,7 +4984,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -4756,10 +5002,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2"/>
@@ -4768,16 +5014,16 @@
         <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
@@ -4817,7 +5063,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -4843,7 +5089,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4922,7 +5168,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -5044,7 +5290,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5094,7 +5340,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -5192,7 +5438,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>76</v>
@@ -5406,7 +5652,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5449,7 +5695,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -5472,13 +5718,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +34,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +53,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +72,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +91,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
+    Dan Jones
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -113,7 +130,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -133,11 +150,10 @@
   <commentList>
     <comment ref="C6" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,11 +169,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -166,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="239">
   <si>
     <t>Conference name</t>
   </si>
@@ -288,7 +303,7 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -881,6 +896,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT
+Dan Jones</t>
   </si>
 </sst>
 </file>
@@ -902,7 +921,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +956,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -950,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -974,6 +1033,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,6 +1091,10 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -2019,6 +2109,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +34,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +53,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +72,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +91,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
+    Dan Jones
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -113,7 +130,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -133,11 +150,10 @@
   <commentList>
     <comment ref="C6" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,11 +169,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -166,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="239">
   <si>
     <t>Conference name</t>
   </si>
@@ -285,6 +300,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -355,12 +376,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -881,6 +896,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT
+Dan Jones</t>
   </si>
 </sst>
 </file>
@@ -902,7 +921,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +956,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -950,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -974,6 +1033,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,6 +1091,10 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1042,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1291,109 +1381,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1404,40 +1484,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1448,17 +1528,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1473,7 +1564,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1551,7 +1642,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1653,7 +1744,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1755,7 +1846,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1857,7 +1948,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -1943,12 +2034,6 @@
       <c r="G3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>218</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1965,7 +2050,71 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -1974,51 +2123,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -2161,7 +2335,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2417,7 +2591,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3112,7 +3286,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4738,7 +4912,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -4843,7 +5017,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5044,7 +5218,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -5406,7 +5580,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +34,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +53,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +72,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +91,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
+    Dan Jones
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -113,7 +130,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
@@ -133,11 +150,10 @@
   <commentList>
     <comment ref="C6" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,11 +169,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S10: Prepare for streaming GWT
+        <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -166,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="249">
   <si>
     <t>Conference name</t>
   </si>
@@ -285,6 +300,30 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Published room</t>
+  </si>
+  <si>
+    <t>Soft penalty per talk scheduled at a different room than its published one</t>
+  </si>
+  <si>
+    <t>Room stability</t>
+  </si>
+  <si>
+    <t>Soft penalty per two talks with the same track scheduled in the same day but at different rooms</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Published timeslot</t>
+  </si>
+  <si>
+    <t>Medium penalty per talk scheduled at a different timeslot than its published one</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -355,12 +394,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -893,6 +926,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT
+Dan Jones</t>
   </si>
 </sst>
 </file>
@@ -914,7 +951,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +986,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -962,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -986,6 +1063,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,6 +1121,10 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1054,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1297,35 +1405,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23"/>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>10.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -1342,70 +1450,60 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1438,12 +1536,12 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
@@ -1454,13 +1552,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1472,6 +1570,50 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1505,48 +1647,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1583,71 +1725,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1685,71 +1827,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1787,71 +1929,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1889,71 +2031,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1987,22 +2129,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
@@ -2011,15 +2153,15 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2027,6 +2169,87 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2050,121 +2273,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2198,226 +2421,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2459,660 +2682,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3170,159 +3393,159 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3334,90 +3557,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3429,90 +3652,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3524,90 +3747,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3619,90 +3842,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -3714,90 +3937,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -3809,90 +4032,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -3904,90 +4127,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -3999,90 +4222,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -4094,90 +4317,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -4189,90 +4412,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4284,90 +4507,90 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4379,90 +4602,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4474,90 +4697,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4569,90 +4792,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4664,90 +4887,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -4759,90 +4982,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -4854,90 +5077,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -4949,28 +5172,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5002,33 +5225,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -5045,7 +5268,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -5063,7 +5286,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -5116,163 +5339,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5317,324 +5540,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5672,71 +5895,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="249">
   <si>
     <t>Conference name</t>
   </si>
@@ -300,12 +300,30 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Published room</t>
+  </si>
+  <si>
+    <t>Soft penalty per talk scheduled at a different room than its published one</t>
+  </si>
+  <si>
+    <t>Room stability</t>
+  </si>
+  <si>
+    <t>Soft penalty per two talks with the same track scheduled in the same day but at different rooms</t>
+  </si>
+  <si>
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
+    <t>Published timeslot</t>
+  </si>
+  <si>
+    <t>Medium penalty per talk scheduled at a different timeslot than its published one</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -595,6 +613,18 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>Published Timeslot</t>
+  </si>
+  <si>
+    <t>Published Start</t>
+  </si>
+  <si>
+    <t>Published End</t>
+  </si>
+  <si>
+    <t>Published Room</t>
   </si>
   <si>
     <t>S00</t>
@@ -1132,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1375,58 +1405,58 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23"/>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10000.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
@@ -1437,7 +1467,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -1448,7 +1478,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>52</v>
@@ -1459,7 +1489,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -1484,73 +1514,106 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1584,48 +1647,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1662,71 +1725,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1764,71 +1827,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1866,71 +1929,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1968,71 +2031,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2066,22 +2129,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
@@ -2090,15 +2153,15 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2129,58 +2192,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2210,121 +2273,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2358,226 +2421,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2619,660 +2682,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3349,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3322,151 +3385,167 @@
     <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3478,78 +3557,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3561,78 +3652,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3644,78 +3747,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3727,78 +3842,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -3810,78 +3937,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -3893,78 +4032,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -3976,78 +4127,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -4059,78 +4222,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -4142,78 +4317,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -4225,78 +4412,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4308,78 +4507,90 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4391,78 +4602,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4474,78 +4697,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4557,78 +4792,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4640,78 +4887,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -4723,78 +4982,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -4806,78 +5077,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -4889,16 +5172,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4930,33 +5225,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -4973,7 +5268,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -4991,7 +5286,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -5044,163 +5339,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5245,324 +5540,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5600,71 +5895,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="251">
   <si>
     <t>Conference name</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Hard penalty per talk that is scheduled before any of its prerequisite talks</t>
+  </si>
+  <si>
+    <t>Consecutive talks pause</t>
+  </si>
+  <si>
+    <t>Hard penalty per two consecutive talks for the same speaker with a pause less than minimum pause</t>
   </si>
   <si>
     <t>Day</t>
@@ -1162,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1614,6 +1620,17 @@
       </c>
       <c r="C43" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1647,48 +1664,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1725,71 +1742,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1827,71 +1844,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1929,71 +1946,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2031,71 +2048,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2129,22 +2146,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -2153,15 +2170,15 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2192,58 +2209,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2273,121 +2290,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2421,226 +2438,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2682,660 +2699,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3393,159 +3410,159 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3557,90 +3574,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3652,90 +3669,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3747,90 +3764,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3842,90 +3859,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -3937,90 +3954,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -4032,90 +4049,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -4127,90 +4144,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -4222,90 +4239,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -4317,90 +4334,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -4412,90 +4429,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4507,90 +4524,90 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4602,90 +4619,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4697,90 +4714,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4792,90 +4809,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4887,90 +4904,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -4982,90 +4999,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -5077,90 +5094,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -5172,28 +5189,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5225,33 +5242,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -5268,7 +5285,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -5286,7 +5303,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -5339,163 +5356,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5540,324 +5557,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5895,71 +5912,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="264">
   <si>
     <t>Conference name</t>
   </si>
@@ -189,10 +189,16 @@
     <t>Javoxx 2021</t>
   </si>
   <si>
+    <t>Minimum consecutive talks pause in minutes</t>
+  </si>
+  <si>
+    <t>The amount of time a speaker needs between 2 talks.</t>
+  </si>
+  <si>
     <t>Constraint</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>Score weight</t>
   </si>
   <si>
     <t>Description</t>
@@ -201,6 +207,9 @@
     <t>Theme track conflict</t>
   </si>
   <si>
+    <t>0hard/0medium/10soft</t>
+  </si>
+  <si>
     <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
@@ -213,12 +222,18 @@
     <t>Audience type diversity</t>
   </si>
   <si>
+    <t>0hard/0medium/1soft</t>
+  </si>
+  <si>
     <t>Soft reward per 2 talks that have the same timeslot and a different audience type</t>
   </si>
   <si>
     <t>Audience type theme track conflict</t>
   </si>
   <si>
+    <t>0hard/0medium/0soft</t>
+  </si>
+  <si>
     <t>Soft penalty per 2 talks that have a common audience type, have a common theme track and have an overlapping timeslot</t>
   </si>
   <si>
@@ -237,6 +252,9 @@
     <t>Content conflict</t>
   </si>
   <si>
+    <t>0hard/0medium/100soft</t>
+  </si>
+  <si>
     <t>Soft penalty per common content of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
@@ -249,6 +267,9 @@
     <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
+    <t>0hard/0medium/20soft</t>
+  </si>
+  <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
@@ -315,18 +336,27 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
+    <t>0hard/1medium/1soft</t>
+  </si>
+  <si>
     <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Published timeslot</t>
   </si>
   <si>
+    <t>0hard/10medium/0soft</t>
+  </si>
+  <si>
     <t>Medium penalty per talk scheduled at a different timeslot than its published one</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
+    <t>10000hard/0medium/0soft</t>
+  </si>
+  <si>
     <t>Hard penalty per talk in a timeslot with another talk type</t>
   </si>
   <si>
@@ -345,10 +375,16 @@
     <t>Room conflict</t>
   </si>
   <si>
+    <t>10hard/0medium/0soft</t>
+  </si>
+  <si>
     <t>Hard penalty per pair of talks in the same room in overlapping timeslots</t>
   </si>
   <si>
     <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>1hard/0medium/0soft</t>
   </si>
   <si>
     <t>Hard penalty per talk with an unavailable speaker at its timeslot</t>
@@ -926,6 +962,9 @@
   </si>
   <si>
     <t>Total score</t>
+  </si>
+  <si>
+    <t>Unassigned variables</t>
   </si>
   <si>
     <t>-10soft</t>
@@ -957,7 +996,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1029,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FCAF3E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1045,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1083,10 +1127,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
@@ -1096,6 +1140,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1177,9 +1224,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="148.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1190,24 +1237,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>10.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1217,420 +1264,431 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>10.0</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1.0</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>1.0</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>10.0</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>100.0</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>10.0</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>20.0</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>20.0</v>
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>20.0</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>20.0</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>20.0</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>20.0</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>20.0</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>20.0</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>10.0</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>10.0</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>10.0</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>10.0</v>
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>10.0</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>10000.0</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>10000.0</v>
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>10.0</v>
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1.0</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1.0</v>
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1.0</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1.0</v>
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>1.0</v>
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>1.0</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>1.0</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1.0</v>
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1.0</v>
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1.0</v>
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>1.0</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1653,59 +1711,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1731,82 +1789,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1833,82 +1891,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1935,82 +1993,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.9140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2037,82 +2095,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2188,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2139,49 +2197,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>248</v>
+      <c r="C4" s="2" t="n">
+        <v>-34.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2203,64 +2270,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>250</v>
+        <v>109</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2281,130 +2348,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.87890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2424,240 +2491,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.87890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.51171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2680,679 +2747,679 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3375,194 +3442,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="30.53125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.3671875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="20.05859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.1953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="29.4140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.4453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.64453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="27.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="22.78125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.2890625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.8046875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.40234375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.9453125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.9453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.90625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3574,90 +3641,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3669,90 +3736,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3764,90 +3831,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3859,90 +3926,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -3954,90 +4021,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -4049,90 +4116,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -4144,90 +4211,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -4239,90 +4306,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -4334,90 +4401,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -4429,90 +4496,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4523,91 +4590,91 @@
       <c r="W12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>102</v>
+      <c r="X12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4619,90 +4686,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4714,90 +4781,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4809,90 +4876,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4904,90 +4971,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -4999,90 +5066,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -5094,90 +5161,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -5189,28 +5256,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5233,42 +5300,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.4296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.25" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -5285,7 +5352,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -5303,7 +5370,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -5338,7 +5405,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.0" customWidth="true"/>
     <col min="3" max="3" width="20.0" customWidth="true"/>
     <col min="4" max="4" width="20.0" customWidth="true"/>
@@ -5356,163 +5423,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5539,7 +5606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.0" customWidth="true"/>
     <col min="3" max="3" width="20.0" customWidth="true"/>
     <col min="4" max="4" width="20.0" customWidth="true"/>
@@ -5557,324 +5624,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5901,82 +5968,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="273">
   <si>
     <t>Conference name</t>
   </si>
@@ -192,7 +192,7 @@
     <t>Minimum consecutive talks pause in minutes</t>
   </si>
   <si>
-    <t>The amount of time a speaker needs between 2 talks.</t>
+    <t>The amount of time a speaker needs between 2 talks</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -210,13 +210,13 @@
     <t>0hard/0medium/10soft</t>
   </si>
   <si>
-    <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Sector conflict</t>
   </si>
   <si>
-    <t>Soft penalty per common sector of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common sector of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Audience type diversity</t>
@@ -225,7 +225,7 @@
     <t>0hard/0medium/1soft</t>
   </si>
   <si>
-    <t>Soft reward per 2 talks that have the same timeslot and a different audience type</t>
+    <t>Reward per 2 talks that have the same timeslot and a different audience type</t>
   </si>
   <si>
     <t>Audience type theme track conflict</t>
@@ -234,19 +234,19 @@
     <t>0hard/0medium/0soft</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks that have a common audience type, have a common theme track and have an overlapping timeslot</t>
+    <t>Penalty per 2 talks that have a common audience type, have a common theme track and have an overlapping timeslot</t>
   </si>
   <si>
     <t>Audience level diversity</t>
   </si>
   <si>
-    <t>Soft reward per 2 talks that have the same timeslot and a different audience level</t>
+    <t>Reward per 2 talks that have the same timeslot and a different audience level</t>
   </si>
   <si>
     <t>Audience level flow per content violation</t>
   </si>
   <si>
-    <t>Soft penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
+    <t>Penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
   </si>
   <si>
     <t>Content conflict</t>
@@ -255,13 +255,13 @@
     <t>0hard/0medium/100soft</t>
   </si>
   <si>
-    <t>Soft penalty per common content of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common content of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Language diversity</t>
   </si>
   <si>
-    <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
+    <t>Reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
     <t>Speaker preferred timeslot tags</t>
@@ -270,13 +270,13 @@
     <t>0hard/0medium/20soft</t>
   </si>
   <si>
-    <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
+    <t>Penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
     <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
-    <t>Soft penalty per undesired tag in a talk's timeslot</t>
+    <t>Penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
     <t>Talk preferred timeslot tags</t>
@@ -288,13 +288,13 @@
     <t>Speaker preferred room tags</t>
   </si>
   <si>
-    <t>Soft penalty per missing preferred tag in a talk's room</t>
+    <t>Penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
     <t>Speaker undesired room tags</t>
   </si>
   <si>
-    <t>Soft penalty per undesired tag in a talk's room</t>
+    <t>Penalty per undesired tag in a talk's room</t>
   </si>
   <si>
     <t>Talk preferred room tags</t>
@@ -306,142 +306,139 @@
     <t>Same day talks</t>
   </si>
   <si>
-    <t>Soft penalty per common content/theme of 2 talks that are scheduled on different days</t>
+    <t>Penalty per common content/theme of 2 talks that are scheduled on different days</t>
   </si>
   <si>
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
+    <t>Penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
   </si>
   <si>
-    <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
+    <t>Penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
     <t>Published room</t>
   </si>
   <si>
-    <t>Soft penalty per talk scheduled at a different room than its published one</t>
+    <t>Penalty per talk scheduled at a different room than its published one</t>
   </si>
   <si>
     <t>Room stability</t>
   </si>
   <si>
-    <t>Soft penalty per two talks with the same track scheduled in the same day but at different rooms</t>
+    <t>Penalty per two talks with the same track scheduled in the same day but at different rooms</t>
+  </si>
+  <si>
+    <t>Published timeslot</t>
+  </si>
+  <si>
+    <t>0hard/1medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk scheduled at a different timeslot than its published one</t>
+  </si>
+  <si>
+    <t>Talk type of timeslot</t>
+  </si>
+  <si>
+    <t>10000hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk in a timeslot with another talk type</t>
+  </si>
+  <si>
+    <t>Talk type of room</t>
+  </si>
+  <si>
+    <t>Penalty per talk in a room with another talk type</t>
+  </si>
+  <si>
+    <t>Room unavailable timeslot</t>
+  </si>
+  <si>
+    <t>Penalty per talk with an unavailable room at its timeslot</t>
+  </si>
+  <si>
+    <t>Room conflict</t>
+  </si>
+  <si>
+    <t>10hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per pair of talks in the same room in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>1hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk with an unavailable speaker at its timeslot</t>
+  </si>
+  <si>
+    <t>Speaker conflict</t>
+  </si>
+  <si>
+    <t>Penalty per pair of talks with the same speaker in overlapping timeslots</t>
+  </si>
+  <si>
+    <t>Speaker required timeslot tags</t>
+  </si>
+  <si>
+    <t>Penalty per missing required tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Speaker prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Penalty per prohibited tag in a talk's timeslot</t>
+  </si>
+  <si>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
+  </si>
+  <si>
+    <t>Penalty per missing required tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Speaker prohibited room tags</t>
+  </si>
+  <si>
+    <t>Penalty per prohibited tag in a talk's room</t>
+  </si>
+  <si>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t>Penalty per talk that is scheduled before any of its prerequisite talks</t>
+  </si>
+  <si>
+    <t>Consecutive talks pause</t>
+  </si>
+  <si>
+    <t>Penalty per two consecutive talks for the same speaker with a pause less than minimum pause</t>
   </si>
   <si>
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>0hard/1medium/1soft</t>
-  </si>
-  <si>
-    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
-  </si>
-  <si>
-    <t>Published timeslot</t>
-  </si>
-  <si>
-    <t>0hard/10medium/0soft</t>
-  </si>
-  <si>
-    <t>Medium penalty per talk scheduled at a different timeslot than its published one</t>
-  </si>
-  <si>
-    <t>Talk type of timeslot</t>
-  </si>
-  <si>
-    <t>10000hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk in a timeslot with another talk type</t>
-  </si>
-  <si>
-    <t>Talk type of room</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk in a room with another talk type</t>
-  </si>
-  <si>
-    <t>Room unavailable timeslot</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk with an unavailable room at its timeslot</t>
-  </si>
-  <si>
-    <t>Room conflict</t>
-  </si>
-  <si>
-    <t>10hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Hard penalty per pair of talks in the same room in overlapping timeslots</t>
-  </si>
-  <si>
-    <t>Speaker unavailable timeslot</t>
-  </si>
-  <si>
-    <t>1hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk with an unavailable speaker at its timeslot</t>
-  </si>
-  <si>
-    <t>Speaker conflict</t>
-  </si>
-  <si>
-    <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
-  </si>
-  <si>
-    <t>Speaker required timeslot tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per missing required tag in a talk's timeslot</t>
-  </si>
-  <si>
-    <t>Speaker prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per prohibited tag in a talk's timeslot</t>
-  </si>
-  <si>
-    <t>Talk required timeslot tags</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Speaker required room tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per missing required tag in a talk's room</t>
-  </si>
-  <si>
-    <t>Speaker prohibited room tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per prohibited tag in a talk's room</t>
-  </si>
-  <si>
-    <t>Talk required room tags</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk prerequisite talks</t>
-  </si>
-  <si>
-    <t>Hard penalty per talk that is scheduled before any of its prerequisite talks</t>
-  </si>
-  <si>
-    <t>Consecutive talks pause</t>
-  </si>
-  <si>
-    <t>Hard penalty per two consecutive talks for the same speaker with a pause less than minimum pause</t>
+    <t>Penalty per two talks that share the same mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Day</t>
@@ -955,22 +952,52 @@
     <t>S10 (level 1)</t>
   </si>
   <si>
-    <t>Constraint match</t>
+    <t>Constraint name</t>
+  </si>
+  <si>
+    <t>Constraint weight</t>
+  </si>
+  <si>
+    <t>Match count</t>
   </si>
   <si>
     <t>Match score</t>
   </si>
   <si>
-    <t>Total score</t>
+    <t>Justifications</t>
   </si>
   <si>
     <t>Unassigned variables</t>
   </si>
   <si>
+    <t>10000hard</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10hard</t>
+  </si>
+  <si>
+    <t>1hard</t>
+  </si>
+  <si>
+    <t>1medium</t>
+  </si>
+  <si>
+    <t>100soft</t>
+  </si>
+  <si>
+    <t>20soft</t>
+  </si>
+  <si>
+    <t>10soft</t>
+  </si>
+  <si>
     <t>-10soft</t>
   </si>
   <si>
-    <t xml:space="preserve">    S10</t>
+    <t>1soft</t>
   </si>
   <si>
     <t>Prepare for streaming GWT
@@ -1089,13 +1116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1226,7 +1256,7 @@
   <cols>
     <col min="1" max="1" width="42.22265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="129.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="125.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1503,46 +1533,46 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>62</v>
@@ -1564,131 +1594,131 @@
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1722,48 +1752,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1800,71 +1830,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1902,71 +1932,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>253</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2004,71 +2034,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>212</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2106,71 +2136,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>167</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2218,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2197,58 +2227,1163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.34375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.3671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="1.0546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>259</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="n">
         <v>-34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2276,58 +3411,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>263</v>
+        <v>108</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2357,121 +3492,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2505,226 +3640,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2766,660 +3901,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3477,159 +4612,159 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -3641,90 +4776,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -3736,90 +4871,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -3831,90 +4966,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -3926,90 +5061,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -4021,90 +5156,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -4116,90 +5251,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -4211,90 +5346,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -4306,90 +5441,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -4401,90 +5536,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -4496,90 +5631,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -4587,94 +5722,94 @@
       <c r="V12" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="W12" s="4" t="b">
+      <c r="W12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="X12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Y12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>114</v>
+      <c r="Z12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -4686,90 +5821,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -4781,90 +5916,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -4876,90 +6011,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -4971,90 +6106,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -5066,90 +6201,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -5161,90 +6296,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -5256,28 +6391,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5309,33 +6444,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -5352,7 +6487,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -5370,7 +6505,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -5423,163 +6558,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5624,324 +6759,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>96</v>
+        <v>129</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>96</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>96</v>
+        <v>132</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>96</v>
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>96</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>138</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>96</v>
+        <v>139</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5979,71 +7114,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>207</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -37,7 +37,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -56,7 +56,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -75,7 +75,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -94,7 +94,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -113,8 +113,8 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
-    -10soft for 1 Crowd controls
+-450soft total
+    -450soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -133,8 +133,8 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
-    -10soft for 1 Crowd controls
+-450soft total
+    -450soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,7 +153,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -172,7 +172,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--10soft total
+-450soft total
 </t>
       </text>
     </comment>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="269">
   <si>
     <t>Conference name</t>
   </si>
@@ -204,19 +204,127 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Room unavailable timeslot</t>
+  </si>
+  <si>
+    <t>10000hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk with an unavailable room in its timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Room conflict</t>
+  </si>
+  <si>
+    <t>10hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per 2 talks in the same room and overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>1hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk with an unavailable speaker in its timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Speaker conflict</t>
+  </si>
+  <si>
+    <t>Penalty per 2 talks with the same speaker and overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t>Penalty per prerequisite talk of a talk that doesn't end before the second talk starts, per minute of either talk</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Penalty per common mutually exclusive talks tag of 2 talks with overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Consecutive talks pause</t>
+  </si>
+  <si>
+    <t>Penalty per 2 consecutive talks for the same speaker with a pause less than the minimum pause, per minute of either talk</t>
+  </si>
+  <si>
+    <t>Speaker required timeslot tags</t>
+  </si>
+  <si>
+    <t>Penalty per missing required tag in a talk's timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Speaker prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Penalty per prohibited tag in a talk's timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
+  </si>
+  <si>
+    <t>Penalty per missing required tag in a talk's room, per minute</t>
+  </si>
+  <si>
+    <t>Speaker prohibited room tags</t>
+  </si>
+  <si>
+    <t>Penalty per prohibited tag in a talk's room, per minute</t>
+  </si>
+  <si>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Published timeslot</t>
+  </si>
+  <si>
+    <t>0hard/1medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per published talk with a different timeslot than its published timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Published room</t>
+  </si>
+  <si>
+    <t>0hard/0medium/10soft</t>
+  </si>
+  <si>
+    <t>Penalty per published talk with a different room than its published room, per minute</t>
+  </si>
+  <si>
     <t>Theme track conflict</t>
   </si>
   <si>
-    <t>0hard/0medium/10soft</t>
-  </si>
-  <si>
-    <t>Penalty per common theme track of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common theme track of 2 talks with overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Theme track room stability</t>
+  </si>
+  <si>
+    <t>Penalty per common theme track of 2 talks in a different room on the same day, per minute of either talk</t>
   </si>
   <si>
     <t>Sector conflict</t>
   </si>
   <si>
-    <t>Penalty per common sector of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common sector of 2 talks with overlapping timeslots, per overlapping minute</t>
   </si>
   <si>
     <t>Audience type diversity</t>
@@ -225,7 +333,7 @@
     <t>0hard/0medium/1soft</t>
   </si>
   <si>
-    <t>Reward per 2 talks that have the same timeslot and a different audience type</t>
+    <t>Reward per 2 talks with a different audience type and the same timeslot, per (overlapping) minute</t>
   </si>
   <si>
     <t>Audience type theme track conflict</t>
@@ -234,19 +342,19 @@
     <t>0hard/0medium/0soft</t>
   </si>
   <si>
-    <t>Penalty per 2 talks that have a common audience type, have a common theme track and have an overlapping timeslot</t>
+    <t>Penalty per 2 talks with a common audience type, a common theme track and overlapping timeslotst, per overlapping minute</t>
   </si>
   <si>
     <t>Audience level diversity</t>
   </si>
   <si>
-    <t>Reward per 2 talks that have the same timeslot and a different audience level</t>
-  </si>
-  <si>
-    <t>Audience level flow per content violation</t>
-  </si>
-  <si>
-    <t>Penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk</t>
+    <t>Reward per 2 talks with a different audience level and the same timeslot, per (overlapping) minute</t>
+  </si>
+  <si>
+    <t>Content audience level flow violation</t>
+  </si>
+  <si>
+    <t>Penalty per common content of 2 talks with a different audience level for which the easier talk isn't scheduled earlier than the other talk, per minute of either talk</t>
   </si>
   <si>
     <t>Content conflict</t>
@@ -255,13 +363,31 @@
     <t>0hard/0medium/100soft</t>
   </si>
   <si>
-    <t>Penalty per common content of 2 talks that have an overlapping timeslot</t>
+    <t>Penalty per common content of 2 talks with overlapping timeslots, per overlapping minute</t>
   </si>
   <si>
     <t>Language diversity</t>
   </si>
   <si>
-    <t>Reward per 2 talks that have the same timeslot and a different language</t>
+    <t>Reward per 2 talks with a different language and the the same timeslot, per (overlapping) minute</t>
+  </si>
+  <si>
+    <t>Same day talks</t>
+  </si>
+  <si>
+    <t>Penalty per common content or theme track of 2 talks with a different day, per minute of either talk</t>
+  </si>
+  <si>
+    <t>Popular talks</t>
+  </si>
+  <si>
+    <t>Penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
+  </si>
+  <si>
+    <t>Crowd control</t>
+  </si>
+  <si>
+    <t>Penalty per talk with a non-zero crowd control risk that are not in paired with exactly one other such talk, per minute of either talk</t>
   </si>
   <si>
     <t>Speaker preferred timeslot tags</t>
@@ -270,13 +396,13 @@
     <t>0hard/0medium/20soft</t>
   </si>
   <si>
-    <t>Penalty per missing preferred tag in a talk's timeslot</t>
+    <t>Penalty per missing preferred tag in a talk's timeslot, per minute</t>
   </si>
   <si>
     <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
-    <t>Penalty per undesired tag in a talk's timeslot</t>
+    <t>Penalty per undesired tag in a talk's timeslot, per minute</t>
   </si>
   <si>
     <t>Talk preferred timeslot tags</t>
@@ -288,13 +414,13 @@
     <t>Speaker preferred room tags</t>
   </si>
   <si>
-    <t>Penalty per missing preferred tag in a talk's room</t>
+    <t>Penalty per missing preferred tag in a talk's room, per minute</t>
   </si>
   <si>
     <t>Speaker undesired room tags</t>
   </si>
   <si>
-    <t>Penalty per undesired tag in a talk's room</t>
+    <t>Penalty per undesired tag in a talk's room, per minute</t>
   </si>
   <si>
     <t>Talk preferred room tags</t>
@@ -303,144 +429,6 @@
     <t>Talk undesired room tags</t>
   </si>
   <si>
-    <t>Same day talks</t>
-  </si>
-  <si>
-    <t>Penalty per common content/theme of 2 talks that are scheduled on different days</t>
-  </si>
-  <si>
-    <t>Popular talks</t>
-  </si>
-  <si>
-    <t>Penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
-  </si>
-  <si>
-    <t>Crowd control</t>
-  </si>
-  <si>
-    <t>Penalty per talks with crowd control risk greater than zero that are not in pairs</t>
-  </si>
-  <si>
-    <t>Published room</t>
-  </si>
-  <si>
-    <t>Penalty per talk scheduled at a different room than its published one</t>
-  </si>
-  <si>
-    <t>Room stability</t>
-  </si>
-  <si>
-    <t>Penalty per two talks with the same track scheduled in the same day but at different rooms</t>
-  </si>
-  <si>
-    <t>Published timeslot</t>
-  </si>
-  <si>
-    <t>0hard/1medium/0soft</t>
-  </si>
-  <si>
-    <t>Penalty per talk scheduled at a different timeslot than its published one</t>
-  </si>
-  <si>
-    <t>Talk type of timeslot</t>
-  </si>
-  <si>
-    <t>10000hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Penalty per talk in a timeslot with another talk type</t>
-  </si>
-  <si>
-    <t>Talk type of room</t>
-  </si>
-  <si>
-    <t>Penalty per talk in a room with another talk type</t>
-  </si>
-  <si>
-    <t>Room unavailable timeslot</t>
-  </si>
-  <si>
-    <t>Penalty per talk with an unavailable room at its timeslot</t>
-  </si>
-  <si>
-    <t>Room conflict</t>
-  </si>
-  <si>
-    <t>10hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Penalty per pair of talks in the same room in overlapping timeslots</t>
-  </si>
-  <si>
-    <t>Speaker unavailable timeslot</t>
-  </si>
-  <si>
-    <t>1hard/0medium/0soft</t>
-  </si>
-  <si>
-    <t>Penalty per talk with an unavailable speaker at its timeslot</t>
-  </si>
-  <si>
-    <t>Speaker conflict</t>
-  </si>
-  <si>
-    <t>Penalty per pair of talks with the same speaker in overlapping timeslots</t>
-  </si>
-  <si>
-    <t>Speaker required timeslot tags</t>
-  </si>
-  <si>
-    <t>Penalty per missing required tag in a talk's timeslot</t>
-  </si>
-  <si>
-    <t>Speaker prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Penalty per prohibited tag in a talk's timeslot</t>
-  </si>
-  <si>
-    <t>Talk required timeslot tags</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Speaker required room tags</t>
-  </si>
-  <si>
-    <t>Penalty per missing required tag in a talk's room</t>
-  </si>
-  <si>
-    <t>Speaker prohibited room tags</t>
-  </si>
-  <si>
-    <t>Penalty per prohibited tag in a talk's room</t>
-  </si>
-  <si>
-    <t>Talk required room tags</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk prerequisite talks</t>
-  </si>
-  <si>
-    <t>Penalty per talk that is scheduled before any of its prerequisite talks</t>
-  </si>
-  <si>
-    <t>Consecutive talks pause</t>
-  </si>
-  <si>
-    <t>Penalty per two consecutive talks for the same speaker with a pause less than minimum pause</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Penalty per two talks that share the same mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -906,7 +894,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-34init/-10soft</t>
+    <t>-34init/-450soft</t>
   </si>
   <si>
     <t>Count</t>
@@ -994,7 +982,7 @@
     <t>10soft</t>
   </si>
   <si>
-    <t>-10soft</t>
+    <t>-450soft</t>
   </si>
   <si>
     <t>1soft</t>
@@ -1245,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
@@ -1256,7 +1244,7 @@
   <cols>
     <col min="1" max="1" width="42.22265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="125.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="149.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1306,29 +1294,29 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1339,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1350,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1361,62 +1349,62 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1424,122 +1412,122 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28"/>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
@@ -1550,7 +1538,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
@@ -1561,18 +1549,18 @@
         <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>62</v>
@@ -1583,40 +1571,40 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>71</v>
@@ -1627,18 +1615,18 @@
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -1646,13 +1634,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -1660,7 +1648,7 @@
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
@@ -1671,18 +1659,18 @@
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>77</v>
@@ -1690,35 +1678,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1752,48 +1718,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1830,71 +1796,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1932,71 +1898,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2034,71 +2000,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2136,71 +2102,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2184,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2227,10 +2193,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.3671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="1.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.9296875" customWidth="true" bestFit="true"/>
@@ -2238,39 +2204,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2280,436 +2246,436 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
@@ -2717,187 +2683,187 @@
         <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>210</v>
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>263</v>
@@ -2906,12 +2872,12 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>265</v>
@@ -2920,390 +2886,390 @@
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>265</v>
@@ -3312,77 +3278,21 @@
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3411,58 +3321,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3492,121 +3402,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3640,226 +3550,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>60.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>240.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>630.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>70.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>490.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3901,660 +3811,660 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4612,159 +4522,159 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>623.0</v>
@@ -4776,90 +4686,90 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>291.0</v>
@@ -4871,90 +4781,90 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>214.0</v>
@@ -4966,90 +4876,90 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>761.0</v>
@@ -5061,90 +4971,90 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>388.0</v>
@@ -5156,90 +5066,90 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>798.0</v>
@@ -5251,90 +5161,90 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>401.0</v>
@@ -5346,90 +5256,90 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>720.0</v>
@@ -5441,90 +5351,90 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>55.0</v>
@@ -5536,90 +5446,90 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>333.0</v>
@@ -5631,90 +5541,90 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>546.0</v>
@@ -5726,90 +5636,90 @@
         <v>1</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z12" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="AA12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>785.0</v>
@@ -5821,90 +5731,90 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>245.0</v>
@@ -5916,90 +5826,90 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U15" s="2" t="n">
         <v>156.0</v>
@@ -6011,90 +5921,90 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>318.0</v>
@@ -6106,90 +6016,90 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>56.0</v>
@@ -6201,90 +6111,90 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>596.0</v>
@@ -6296,90 +6206,90 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U19" s="2" t="n">
         <v>701.0</v>
@@ -6391,28 +6301,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6436,7 +6346,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
@@ -6444,33 +6354,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2.0</v>
@@ -6487,7 +6397,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>16.0</v>
@@ -6505,7 +6415,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>18.0</v>
@@ -6558,163 +6468,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6759,324 +6669,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7114,71 +7024,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/18talks-6timeslots-5rooms.xlsx
@@ -37,7 +37,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -56,7 +56,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -75,7 +75,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -94,7 +94,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -113,8 +113,8 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
-    -450soft for 1 Crowd controls
+-45hard total
+    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -133,8 +133,8 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
-    -450soft for 1 Crowd controls
+-45hard total
+    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,7 +153,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -172,7 +172,7 @@
         <t xml:space="preserve">S10-Culture: Prepare for streaming GWT
     Dan Jones
 PINNED BY USER
--450soft total
+-45hard total
 </t>
       </text>
     </comment>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="273">
   <si>
     <t>Conference name</t>
   </si>
@@ -207,7 +207,7 @@
     <t>Room unavailable timeslot</t>
   </si>
   <si>
-    <t>10000hard/0medium/0soft</t>
+    <t>100000hard/0medium/0soft</t>
   </si>
   <si>
     <t>Penalty per talk with an unavailable room in its timeslot, per minute</t>
@@ -216,36 +216,42 @@
     <t>Room conflict</t>
   </si>
   <si>
+    <t>1000hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per 2 talks in the same room and overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Speaker unavailable timeslot</t>
+  </si>
+  <si>
+    <t>100hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t>Penalty per talk with an unavailable speaker in its timeslot, per minute</t>
+  </si>
+  <si>
+    <t>Speaker conflict</t>
+  </si>
+  <si>
     <t>10hard/0medium/0soft</t>
   </si>
   <si>
-    <t>Penalty per 2 talks in the same room and overlapping timeslots, per overlapping minute</t>
-  </si>
-  <si>
-    <t>Speaker unavailable timeslot</t>
+    <t>Penalty per 2 talks with the same speaker and overlapping timeslots, per overlapping minute</t>
+  </si>
+  <si>
+    <t>Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t>Penalty per prerequisite talk of a talk that doesn't end before the second talk starts, per minute of either talk</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>1hard/0medium/0soft</t>
   </si>
   <si>
-    <t>Penalty per talk with an unavailable speaker in its timeslot, per minute</t>
-  </si>
-  <si>
-    <t>Speaker conflict</t>
-  </si>
-  <si>
-    <t>Penalty per 2 talks with the same speaker and overlapping timeslots, per overlapping minute</t>
-  </si>
-  <si>
-    <t>Talk prerequisite talks</t>
-  </si>
-  <si>
-    <t>Penalty per prerequisite talk of a talk that doesn't end before the second talk starts, per minute of either talk</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
     <t>Penalty per common mutually exclusive talks tag of 2 talks with overlapping timeslots, per overlapping minute</t>
   </si>
   <si>
@@ -255,6 +261,12 @@
     <t>Penalty per 2 consecutive talks for the same speaker with a pause less than the minimum pause, per minute of either talk</t>
   </si>
   <si>
+    <t>Crowd control</t>
+  </si>
+  <si>
+    <t>Penalty per talk with a non-zero crowd control risk that are not in paired with exactly one other such talk, per minute of either talk</t>
+  </si>
+  <si>
     <t>Speaker required timeslot tags</t>
   </si>
   <si>
@@ -297,7 +309,7 @@
     <t>0hard/1medium/0soft</t>
   </si>
   <si>
-    <t>Penalty per published talk with a different timeslot than its published timeslot, per minute</t>
+    <t>Penalty per published talk with a different timeslot than its published timeslot, per match</t>
   </si>
   <si>
     <t>Published room</t>
@@ -306,7 +318,7 @@
     <t>0hard/0medium/10soft</t>
   </si>
   <si>
-    <t>Penalty per published talk with a different room than its published room, per minute</t>
+    <t>Penalty per published talk with a different room than its published room, per match</t>
   </si>
   <si>
     <t>Theme track conflict</t>
@@ -384,12 +396,6 @@
     <t>Penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
-    <t>Crowd control</t>
-  </si>
-  <si>
-    <t>Penalty per talk with a non-zero crowd control risk that are not in paired with exactly one other such talk, per minute of either talk</t>
-  </si>
-  <si>
     <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
@@ -894,7 +900,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-34init/-450soft</t>
+    <t>-34init/-45hard</t>
   </si>
   <si>
     <t>Count</t>
@@ -958,18 +964,27 @@
     <t>Unassigned variables</t>
   </si>
   <si>
-    <t>10000hard</t>
+    <t>100000hard</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>1000hard</t>
+  </si>
+  <si>
+    <t>100hard</t>
+  </si>
+  <si>
     <t>10hard</t>
   </si>
   <si>
     <t>1hard</t>
   </si>
   <si>
+    <t>-45hard</t>
+  </si>
+  <si>
     <t>1medium</t>
   </si>
   <si>
@@ -980,9 +995,6 @@
   </si>
   <si>
     <t>10soft</t>
-  </si>
-  <si>
-    <t>-450soft</t>
   </si>
   <si>
     <t>1soft</t>
@@ -1011,7 +1023,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1032,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BABDB6"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1104,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1116,7 +1133,7 @@
       <alignment wrapText="true" vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment wrapText="true" vertical="center"/>
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1130,10 +1147,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
@@ -1148,10 +1165,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
@@ -1161,6 +1178,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1263,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="149.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1282,7 +1302,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1293,7 +1313,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1304,7 +1324,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1315,96 +1335,96 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1412,279 +1432,279 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="